--- a/training_schedule.xlsx
+++ b/training_schedule.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\CV_training\CV_training\CV_training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hadar\PycharmProjects\CV_training\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C7565F-996E-409F-9951-8C1C3311C435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10710" windowHeight="4220"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -123,23 +135,29 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -154,11 +172,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,18 +457,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.9140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -470,13 +489,13 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <f>SUM(C3)</f>
         <v>0.5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <f>SUM(D3)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -486,18 +505,21 @@
       <c r="C3">
         <v>0.5</v>
       </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <f>SUM(C6:C11)</f>
         <v>15.5</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <f>SUM(D6:D11)</f>
-        <v>0</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -507,6 +529,9 @@
       <c r="C6">
         <v>1</v>
       </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
@@ -515,6 +540,9 @@
       <c r="C7">
         <v>2</v>
       </c>
+      <c r="D7">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
@@ -523,6 +551,9 @@
       <c r="C8">
         <v>6.5</v>
       </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
@@ -531,6 +562,9 @@
       <c r="C9">
         <v>1</v>
       </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
@@ -539,6 +573,9 @@
       <c r="C10">
         <v>2</v>
       </c>
+      <c r="D10">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
@@ -547,31 +584,26 @@
       <c r="C11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="D11">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12">
-        <f>SUM(C13:C20)</f>
+      <c r="C13" s="2">
+        <f>SUM(C14:C21)</f>
         <v>13</v>
       </c>
-      <c r="D12">
-        <f>SUM(D13:D20)</f>
+      <c r="D13" s="2">
+        <f>SUM(D14:D21)</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -579,7 +611,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -587,15 +619,15 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -603,7 +635,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -611,7 +643,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -619,106 +651,114 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="C21">
-        <f>SUM(C22:C24)</f>
+      <c r="C23" s="2">
+        <f>SUM(C24:C26)</f>
         <v>21</v>
       </c>
-      <c r="D21">
-        <f>SUM(D22:D24)</f>
+      <c r="D23" s="2">
+        <f>SUM(D24:D26)</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>27</v>
+      <c r="B25" t="s">
+        <v>25</v>
       </c>
       <c r="C25">
-        <f>SUM(C26:C28)</f>
-        <v>28</v>
-      </c>
-      <c r="D25">
-        <f>SUM(D26:D28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2">
+        <f>SUM(C29:C31)</f>
+        <v>28</v>
+      </c>
+      <c r="D28" s="2">
+        <f>SUM(D29:D31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
         <v>24</v>
       </c>
-      <c r="C26">
+      <c r="C29">
         <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <f>SUM(C30:C31)</f>
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <f>SUM(D30:D31)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
+        <f>SUM(C34:C35)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <f>SUM(D34:D35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
         <v>5</v>
       </c>
     </row>

--- a/training_schedule.xlsx
+++ b/training_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hadar\PycharmProjects\CV_training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C7565F-996E-409F-9951-8C1C3311C435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0698BD-79EE-4347-8BF8-74C719C2E27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,14 +460,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -598,7 +598,7 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D14:D21)</f>
-        <v>0</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -608,6 +608,9 @@
       <c r="C14">
         <v>1</v>
       </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
@@ -616,6 +619,9 @@
       <c r="C15">
         <v>1</v>
       </c>
+      <c r="D15">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
@@ -624,6 +630,9 @@
       <c r="C16">
         <v>1</v>
       </c>
+      <c r="D16">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
@@ -631,6 +640,9 @@
       </c>
       <c r="C17">
         <v>2</v>
+      </c>
+      <c r="D17">
+        <v>0.75</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">

--- a/training_schedule.xlsx
+++ b/training_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hadar\PycharmProjects\CV_training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0698BD-79EE-4347-8BF8-74C719C2E27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DEA33D-7773-4220-87B4-F3F30A18B4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,7 +598,7 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D14:D21)</f>
-        <v>1.1499999999999999</v>
+        <v>5.8500000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -652,6 +652,9 @@
       <c r="C18">
         <v>2</v>
       </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
@@ -660,6 +663,9 @@
       <c r="C19">
         <v>2</v>
       </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
@@ -667,6 +673,9 @@
       </c>
       <c r="C20">
         <v>2</v>
+      </c>
+      <c r="D20">
+        <v>1.7</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">

--- a/training_schedule.xlsx
+++ b/training_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hadar\PycharmProjects\CV_training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DEA33D-7773-4220-87B4-F3F30A18B4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30237501-D6DE-4FF7-9CDE-7A1303156A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,7 +598,7 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D14:D21)</f>
-        <v>5.8500000000000005</v>
+        <v>6.8500000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -684,6 +684,9 @@
       </c>
       <c r="C21">
         <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">

--- a/training_schedule.xlsx
+++ b/training_schedule.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hadar\PycharmProjects\CV_training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30237501-D6DE-4FF7-9CDE-7A1303156A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C876F0A9-7FE6-4D08-97EC-E53BB829439C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Topic</t>
   </si>
@@ -130,16 +131,62 @@
   </si>
   <si>
     <t>estimated time</t>
+  </si>
+  <si>
+    <t>unit 1</t>
+  </si>
+  <si>
+    <t>unit 2</t>
+  </si>
+  <si>
+    <t>unit 3</t>
+  </si>
+  <si>
+    <t>unit 4</t>
+  </si>
+  <si>
+    <t>unit 6</t>
+  </si>
+  <si>
+    <t>unit 7</t>
+  </si>
+  <si>
+    <t>unit 9</t>
+  </si>
+  <si>
+    <t>Assignment 1</t>
+  </si>
+  <si>
+    <t>Assignment 2</t>
+  </si>
+  <si>
+    <t>Assignment 3</t>
+  </si>
+  <si>
+    <t>Assignment 4</t>
+  </si>
+  <si>
+    <t>Assignment 5</t>
+  </si>
+  <si>
+    <t>Assignment 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
@@ -458,17 +505,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -694,99 +742,213 @@
         <v>23</v>
       </c>
       <c r="C23" s="2">
-        <f>SUM(C24:C26)</f>
+        <f>SUM(C31:C33)</f>
         <v>21</v>
       </c>
       <c r="D23" s="2">
-        <f>SUM(D24:D26)</f>
-        <v>0</v>
+        <f>SUM(D24:D33)</f>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24">
-        <v>15</v>
+        <v>31</v>
+      </c>
+      <c r="D24">
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26">
-        <v>5</v>
+        <v>33</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="2">
-        <f>SUM(C29:C31)</f>
-        <v>28</v>
-      </c>
-      <c r="D28" s="2">
-        <f>SUM(D29:D31)</f>
-        <v>0</v>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29">
-        <v>15</v>
+        <v>36</v>
+      </c>
+      <c r="D29">
+        <v>3.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30">
-        <v>8</v>
+        <v>37</v>
+      </c>
+      <c r="D30">
+        <v>0.25</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="2">
+        <f>SUM(C36:C44)</f>
+        <v>23</v>
+      </c>
+      <c r="D35" s="2">
+        <f>SUM(D36:D44)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+      <c r="D43">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
         <v>29</v>
       </c>
-      <c r="C31">
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2">
+        <f>SUM(C47:C48)</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="2">
+        <f>SUM(D47:D48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2">
-        <f>SUM(C34:C35)</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="2">
-        <f>SUM(D34:D35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>